--- a/Excel/PolicyBazaar.xlsx
+++ b/Excel/PolicyBazaar.xlsx
@@ -32,20 +32,26 @@
     <t>9421032147</t>
   </si>
   <si>
-    <t>Ne Sawant</t>
+    <t>Neha Narayan Sawant</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -68,9 +74,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,24 +363,24 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -381,5 +390,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>